--- a/examples/test.xlsx.REMOTE.xlsx
+++ b/examples/test.xlsx.REMOTE.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>阿松大</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +148,13 @@
   </si>
   <si>
     <t>阿文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet3</t>
+  </si>
+  <si>
+    <t>Sheet3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,12 +178,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,8 +210,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -611,9 +633,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
